--- a/auxiliar/master_canales.xlsx
+++ b/auxiliar/master_canales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuentesr\Documents\GitHub\zukzeuk_listas\auxiliar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FBB69-064D-4087-8606-141864981005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785CA93-B296-4CC7-B013-2412474DA8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A531B58A-7654-4A90-B572-6A82B189718D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A531B58A-7654-4A90-B572-6A82B189718D}"/>
   </bookViews>
   <sheets>
     <sheet name="canales dobleM" sheetId="2" r:id="rId1"/>
@@ -2807,7 +2807,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2816,10 +2815,11 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2871,20 +2871,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818CFBDD-AFD6-448B-B0BC-5D8ED0779073}" name="canales_dobleM" displayName="canales_dobleM" ref="B1:G644" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818CFBDD-AFD6-448B-B0BC-5D8ED0779073}" name="canales_dobleM" displayName="canales_dobleM" ref="B1:G644" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B1:G644" xr:uid="{818CFBDD-AFD6-448B-B0BC-5D8ED0779073}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G644">
     <sortCondition ref="B2:B644"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{88AD8498-1BCB-4C80-A3A9-FCB3DEABA6A7}" uniqueName="6" name="Orden dobleM" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{8E1CFD37-9D57-4CD7-A3F9-9F5E6675894D}" uniqueName="1" name="Canales dobleM" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DA2CF201-EFCF-4E76-8592-FBD14BB88E41}" uniqueName="3" name="Grupo" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A8E3425F-E7C2-421E-9F6A-DBEDFF3AA3E8}" uniqueName="5" name="Subgrupo" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{88AD8498-1BCB-4C80-A3A9-FCB3DEABA6A7}" uniqueName="6" name="Orden dobleM" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8E1CFD37-9D57-4CD7-A3F9-9F5E6675894D}" uniqueName="1" name="Canales dobleM" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DA2CF201-EFCF-4E76-8592-FBD14BB88E41}" uniqueName="3" name="Grupo" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A8E3425F-E7C2-421E-9F6A-DBEDFF3AA3E8}" uniqueName="5" name="Subgrupo" queryTableFieldId="6" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{8E69E452-534B-48AB-87AD-A6CC97DB15F7}" uniqueName="7" name="G+S" queryTableFieldId="9" dataDxfId="7">
       <calculatedColumnFormula>IF(canales_dobleM[[#This Row],[Subgrupo]]&lt;&gt;"",canales_dobleM[[#This Row],[Grupo]]&amp;"-"&amp;canales_dobleM[[#This Row],[Subgrupo]],canales_dobleM[[#This Row],[Grupo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{348F27DA-6E5D-4D76-B145-E291A631A5B2}" uniqueName="4" name="Activo" queryTableFieldId="4" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{348F27DA-6E5D-4D76-B145-E291A631A5B2}" uniqueName="4" name="Activo" queryTableFieldId="4" dataDxfId="6">
       <calculatedColumnFormula>canales_dobleM[[#This Row],[Canales dobleM]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2900,10 +2900,10 @@
     <sortCondition ref="E2:E181"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{305950C3-4464-480C-9DE8-9380342EEA70}" uniqueName="3" name="Nombre IPTV" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8E6098B9-950A-4B5F-9900-E7049355DDAC}" uniqueName="6" name="Id dobleM" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CF84AC73-BF9A-4636-BE07-22E1AB18AD55}" uniqueName="2" name="Grupo IPTV" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{120838F8-BB43-45D3-86AC-3CEA950FB252}" uniqueName="1" name="Id IPTV" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{305950C3-4464-480C-9DE8-9380342EEA70}" uniqueName="3" name="Nombre IPTV" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8E6098B9-950A-4B5F-9900-E7049355DDAC}" uniqueName="6" name="Id dobleM" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CF84AC73-BF9A-4636-BE07-22E1AB18AD55}" uniqueName="2" name="Grupo IPTV" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{120838F8-BB43-45D3-86AC-3CEA950FB252}" uniqueName="1" name="Id IPTV" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{FBC8AF0E-B8BF-485E-A02F-FDA96D2D2372}" uniqueName="7" name="Nombre ZZ" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{B9753E51-9C0A-4628-84CA-7B02B5914CF2}" uniqueName="8" name="Grupo ZZ" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC0B31C-16A7-43F6-B35F-D0F1E84F52C6}">
   <dimension ref="B1:G644"/>
   <sheetViews>
-    <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C644"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14385,7 +14385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA69095-45C5-466C-98B1-C28C6B8F2606}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
